--- a/.wmi/other/ReUse-repair App documents11Onwards.xlsx
+++ b/.wmi/other/ReUse-repair App documents11Onwards.xlsx
@@ -898,21 +898,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>OFFICE EQUIPMENT(b,13,76)(b,13,82)(b,13,88)(b,13,90) (b,13,93)(b,13,96)(b,13,147-151)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t>«</t>
-    </r>
-  </si>
-  <si>
     <t>OFFICE SUPPLIES (b,15,187)</t>
   </si>
   <si>
@@ -2353,6 +2338,21 @@
   <si>
     <r>
       <t>HOUSEHOLD GOODS(bID,1,1-8) (bID,1,181-185</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>«</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OFFICE EQUIPMENT(b,13,76)(b,13,82)(b,13,88)(b,13,90) (b,13,93)(b,13,96)(b,13,147-150)</t>
     </r>
     <r>
       <rPr>
@@ -3655,8 +3655,8 @@
   <dimension ref="A1:AMJ39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7304,7 +7304,7 @@
     </row>
     <row r="8" spans="1:1024" ht="12.75" customHeight="1">
       <c r="A8" s="32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>102</v>
@@ -29106,7 +29106,7 @@
     </row>
     <row r="29" spans="1:1014" ht="24" customHeight="1">
       <c r="A29" s="25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>102</v>
@@ -31192,7 +31192,7 @@
     </row>
     <row r="31" spans="1:1014" ht="25.35" customHeight="1">
       <c r="A31" s="29" t="s">
-        <v>130</v>
+        <v>594</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>102</v>
@@ -32226,7 +32226,7 @@
     </row>
     <row r="32" spans="1:1014" ht="12.75" customHeight="1">
       <c r="A32" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>102</v>
@@ -33270,7 +33270,7 @@
     </row>
     <row r="33" spans="1:1024" ht="12.75" customHeight="1">
       <c r="A33" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="27"/>
@@ -34296,7 +34296,7 @@
     </row>
     <row r="34" spans="1:1024" ht="12.75" customHeight="1">
       <c r="A34" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>102</v>
@@ -35334,7 +35334,7 @@
     </row>
     <row r="35" spans="1:1024" ht="12.75" customHeight="1">
       <c r="A35" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B35" s="36"/>
       <c r="C35" s="37"/>
@@ -36356,7 +36356,7 @@
     </row>
     <row r="36" spans="1:1024" ht="12.75" customHeight="1">
       <c r="A36" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>102</v>
@@ -37402,7 +37402,7 @@
     </row>
     <row r="37" spans="1:1024" ht="12.75" customHeight="1">
       <c r="A37" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>102</v>
@@ -38446,7 +38446,7 @@
     </row>
     <row r="38" spans="1:1024" ht="12.75" customHeight="1">
       <c r="A38" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="23"/>
@@ -39474,7 +39474,7 @@
     </row>
     <row r="39" spans="1:1024" s="51" customFormat="1" ht="17.45" customHeight="1">
       <c r="A39" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B39" s="50"/>
       <c r="C39" s="50"/>
@@ -39523,7 +39523,7 @@
       <c r="AT39" s="50"/>
       <c r="AU39" s="50"/>
       <c r="AV39" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
@@ -39574,27 +39574,27 @@
   <sheetData>
     <row r="1" spans="1:4" s="53" customFormat="1" ht="37.5" customHeight="1">
       <c r="A1" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="D1" s="57" t="s">
         <v>142</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="C2" s="59" t="s">
         <v>145</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>146</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>64</v>
@@ -39602,181 +39602,181 @@
     </row>
     <row r="3" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="C3" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="D3" s="60" t="s">
         <v>149</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A4" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="C4" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="D4" s="60" t="s">
         <v>153</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="C5" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>156</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="C6" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>159</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>162</v>
-      </c>
       <c r="C7" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A8" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="C8" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="60" t="s">
         <v>164</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A9" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="C9" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="60" t="s">
         <v>167</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A10" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="C10" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>170</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="C11" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="60" t="s">
         <v>173</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A12" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="C12" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="60" t="s">
         <v>176</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A13" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="C13" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="60" t="s">
         <v>179</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="C14" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="60" t="s">
         <v>182</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A15" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="58" t="s">
-        <v>185</v>
-      </c>
       <c r="C15" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" s="60" t="s">
         <v>55</v>
@@ -39784,13 +39784,13 @@
     </row>
     <row r="16" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="62" t="s">
-        <v>187</v>
-      </c>
       <c r="C16" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="60" t="s">
         <v>56</v>
@@ -39798,13 +39798,13 @@
     </row>
     <row r="17" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="58" t="s">
-        <v>189</v>
-      </c>
       <c r="C17" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D17" s="60" t="s">
         <v>57</v>
@@ -39812,13 +39812,13 @@
     </row>
     <row r="18" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="58" t="s">
-        <v>191</v>
-      </c>
       <c r="C18" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="60" t="s">
         <v>58</v>
@@ -39826,13 +39826,13 @@
     </row>
     <row r="19" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="B19" s="58" t="s">
-        <v>193</v>
-      </c>
       <c r="C19" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="60" t="s">
         <v>59</v>
@@ -39840,13 +39840,13 @@
     </row>
     <row r="20" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A20" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="B20" s="58" t="s">
-        <v>195</v>
-      </c>
       <c r="C20" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D20" s="60" t="s">
         <v>60</v>
@@ -39854,13 +39854,13 @@
     </row>
     <row r="21" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="58" t="s">
-        <v>197</v>
-      </c>
       <c r="C21" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" s="60" t="s">
         <v>61</v>
@@ -39868,13 +39868,13 @@
     </row>
     <row r="22" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A22" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="58" t="s">
-        <v>199</v>
-      </c>
       <c r="C22" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D22" s="60" t="s">
         <v>62</v>
@@ -39882,13 +39882,13 @@
     </row>
     <row r="23" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A23" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="58" t="s">
-        <v>201</v>
-      </c>
       <c r="C23" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D23" s="60" t="s">
         <v>63</v>
@@ -39896,13 +39896,13 @@
     </row>
     <row r="24" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A24" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="58" t="s">
-        <v>203</v>
-      </c>
       <c r="C24" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" s="60" t="s">
         <v>64</v>
@@ -39910,13 +39910,13 @@
     </row>
     <row r="25" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A25" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="B25" s="58" t="s">
-        <v>205</v>
-      </c>
       <c r="C25" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D25" s="60" t="s">
         <v>65</v>
@@ -39924,13 +39924,13 @@
     </row>
     <row r="26" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A26" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D26" s="60" t="s">
         <v>65</v>
@@ -39938,27 +39938,27 @@
     </row>
     <row r="27" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A27" s="58" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="C27" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="60" t="s">
         <v>208</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="60" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A28" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="B28" s="62" t="s">
-        <v>211</v>
-      </c>
       <c r="C28" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D28" s="60" t="s">
         <v>67</v>
@@ -39966,13 +39966,13 @@
     </row>
     <row r="29" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A29" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="B29" s="58" t="s">
-        <v>213</v>
-      </c>
       <c r="C29" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" s="60" t="s">
         <v>68</v>
@@ -39980,41 +39980,41 @@
     </row>
     <row r="30" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A30" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="C30" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="60" t="s">
         <v>215</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A31" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="C31" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="60" t="s">
         <v>218</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="60" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A32" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="58" t="s">
-        <v>221</v>
-      </c>
       <c r="C32" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D32" s="60" t="s">
         <v>69</v>
@@ -40022,13 +40022,13 @@
     </row>
     <row r="33" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A33" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="B33" s="62" t="s">
-        <v>223</v>
-      </c>
       <c r="C33" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D33" s="60" t="s">
         <v>70</v>
@@ -40036,13 +40036,13 @@
     </row>
     <row r="34" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A34" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="B34" s="58" t="s">
-        <v>225</v>
-      </c>
       <c r="C34" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D34" s="60" t="s">
         <v>71</v>
@@ -40050,13 +40050,13 @@
     </row>
     <row r="35" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A35" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="B35" s="58" t="s">
-        <v>227</v>
-      </c>
       <c r="C35" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D35" s="60" t="s">
         <v>72</v>
@@ -40064,13 +40064,13 @@
     </row>
     <row r="36" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A36" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="B36" s="58" t="s">
-        <v>229</v>
-      </c>
       <c r="C36" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D36" s="60" t="s">
         <v>73</v>
@@ -40078,13 +40078,13 @@
     </row>
     <row r="37" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A37" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="B37" s="58" t="s">
-        <v>231</v>
-      </c>
       <c r="C37" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D37" s="60" t="s">
         <v>74</v>
@@ -40092,13 +40092,13 @@
     </row>
     <row r="38" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A38" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="B38" s="58" t="s">
-        <v>233</v>
-      </c>
       <c r="C38" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D38" s="60" t="s">
         <v>75</v>
@@ -40106,13 +40106,13 @@
     </row>
     <row r="39" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A39" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="B39" s="58" t="s">
-        <v>235</v>
-      </c>
       <c r="C39" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D39" s="60" t="s">
         <v>76</v>
@@ -40120,13 +40120,13 @@
     </row>
     <row r="40" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A40" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="B40" s="62" t="s">
-        <v>237</v>
-      </c>
       <c r="C40" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D40" s="60" t="s">
         <v>77</v>
@@ -40134,13 +40134,13 @@
     </row>
     <row r="41" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A41" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="B41" s="62" t="s">
-        <v>239</v>
-      </c>
       <c r="C41" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D41" s="60" t="s">
         <v>78</v>
@@ -40149,13 +40149,13 @@
     </row>
     <row r="42" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A42" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="B42" s="62" t="s">
-        <v>241</v>
-      </c>
       <c r="C42" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D42" s="64" t="s">
         <v>75</v>
@@ -40164,13 +40164,13 @@
     </row>
     <row r="43" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A43" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="C43" s="59" t="s">
         <v>243</v>
-      </c>
-      <c r="C43" s="59" t="s">
-        <v>244</v>
       </c>
       <c r="D43" s="60" t="s">
         <v>79</v>
@@ -40179,13 +40179,13 @@
     </row>
     <row r="44" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A44" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="B44" s="58" t="s">
-        <v>246</v>
-      </c>
       <c r="C44" s="59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D44" s="60" t="s">
         <v>80</v>
@@ -40194,13 +40194,13 @@
     </row>
     <row r="45" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A45" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="B45" s="58" t="s">
-        <v>248</v>
-      </c>
       <c r="C45" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D45" s="60" t="s">
         <v>81</v>
@@ -40209,13 +40209,13 @@
     </row>
     <row r="46" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A46" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="B46" s="58" t="s">
-        <v>250</v>
-      </c>
       <c r="C46" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" s="60" t="s">
         <v>82</v>
@@ -40224,28 +40224,28 @@
     </row>
     <row r="47" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A47" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="B47" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="C47" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="60" t="s">
         <v>252</v>
-      </c>
-      <c r="C47" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" s="60" t="s">
-        <v>253</v>
       </c>
       <c r="E47"/>
     </row>
     <row r="48" spans="1:5" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A48" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="B48" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="B48" s="65" t="s">
-        <v>255</v>
-      </c>
       <c r="C48" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="60" t="s">
         <v>84</v>
@@ -40254,13 +40254,13 @@
     </row>
     <row r="49" spans="1:6" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A49" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="B49" s="58" t="s">
-        <v>257</v>
-      </c>
       <c r="C49" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="60" t="s">
         <v>85</v>
@@ -40270,13 +40270,13 @@
     </row>
     <row r="50" spans="1:6" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A50" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="B50" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="B50" s="58" t="s">
-        <v>259</v>
-      </c>
       <c r="C50" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="60" t="s">
         <v>86</v>
@@ -40286,13 +40286,13 @@
     </row>
     <row r="51" spans="1:6" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A51" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="B51" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="B51" s="58" t="s">
-        <v>261</v>
-      </c>
       <c r="C51" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="60" t="s">
         <v>87</v>
@@ -40302,13 +40302,13 @@
     </row>
     <row r="52" spans="1:6" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A52" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="B52" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="B52" s="58" t="s">
-        <v>263</v>
-      </c>
       <c r="C52" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="60" t="s">
         <v>88</v>
@@ -40318,13 +40318,13 @@
     </row>
     <row r="53" spans="1:6" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A53" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="B53" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="B53" s="58" t="s">
-        <v>265</v>
-      </c>
       <c r="C53" s="59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="60" t="s">
         <v>89</v>
@@ -40334,13 +40334,13 @@
     </row>
     <row r="54" spans="1:6" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A54" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="B54" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="B54" s="58" t="s">
-        <v>267</v>
-      </c>
       <c r="C54" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D54" s="60" t="s">
         <v>90</v>
@@ -40350,13 +40350,13 @@
     </row>
     <row r="55" spans="1:6" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A55" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="B55" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="B55" s="58" t="s">
-        <v>269</v>
-      </c>
       <c r="C55" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D55" s="60" t="s">
         <v>91</v>
@@ -40366,13 +40366,13 @@
     </row>
     <row r="56" spans="1:6" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A56" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="B56" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="B56" s="58" t="s">
-        <v>271</v>
-      </c>
       <c r="C56" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D56" s="60" t="s">
         <v>92</v>
@@ -40382,13 +40382,13 @@
     </row>
     <row r="57" spans="1:6" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A57" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="B57" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="B57" s="62" t="s">
-        <v>273</v>
-      </c>
       <c r="C57" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D57" s="60" t="s">
         <v>93</v>
@@ -40398,29 +40398,29 @@
     </row>
     <row r="58" spans="1:6" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A58" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="B58" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="B58" s="62" t="s">
+      <c r="C58" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="60" t="s">
         <v>275</v>
-      </c>
-      <c r="C58" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D58" s="60" t="s">
-        <v>276</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="55"/>
     </row>
     <row r="59" spans="1:6" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A59" s="58" t="s">
+        <v>276</v>
+      </c>
+      <c r="B59" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="B59" s="58" t="s">
-        <v>278</v>
-      </c>
       <c r="C59" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D59" s="60" t="s">
         <v>94</v>
@@ -40430,13 +40430,13 @@
     </row>
     <row r="60" spans="1:6" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A60" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="B60" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="B60" s="58" t="s">
-        <v>280</v>
-      </c>
       <c r="C60" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D60" s="60" t="s">
         <v>95</v>
@@ -40446,13 +40446,13 @@
     </row>
     <row r="61" spans="1:6" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A61" s="58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B61" s="60" t="s">
         <v>66</v>
       </c>
       <c r="C61" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D61" s="60" t="s">
         <v>66</v>
@@ -40462,59 +40462,59 @@
     </row>
     <row r="62" spans="1:6" s="61" customFormat="1" ht="24" customHeight="1">
       <c r="A62" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="B62" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="B62" s="62" t="s">
+      <c r="C62" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="60" t="s">
         <v>283</v>
-      </c>
-      <c r="C62" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D62" s="60" t="s">
-        <v>284</v>
       </c>
       <c r="E62"/>
       <c r="F62" s="55"/>
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="A63" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="B63" s="60" t="s">
-        <v>286</v>
-      </c>
       <c r="C63" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D63" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E63"/>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
       <c r="A64" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="B64" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="B64" s="58" t="s">
+      <c r="C64" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="60" t="s">
         <v>288</v>
-      </c>
-      <c r="C64" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D64" s="60" t="s">
-        <v>289</v>
       </c>
       <c r="E64"/>
     </row>
     <row r="65" spans="1:5" ht="24" customHeight="1">
       <c r="A65" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="B65" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="B65" s="58" t="s">
-        <v>291</v>
-      </c>
       <c r="C65" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D65" s="60" t="s">
         <v>96</v>
@@ -40523,13 +40523,13 @@
     </row>
     <row r="66" spans="1:5" ht="24" customHeight="1">
       <c r="A66" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="B66" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="B66" s="62" t="s">
-        <v>293</v>
-      </c>
       <c r="C66" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D66" s="60" t="s">
         <v>97</v>
@@ -40538,13 +40538,13 @@
     </row>
     <row r="67" spans="1:5" ht="24" customHeight="1">
       <c r="A67" s="69" t="s">
+        <v>293</v>
+      </c>
+      <c r="B67" s="58" t="s">
         <v>294</v>
       </c>
-      <c r="B67" s="58" t="s">
-        <v>295</v>
-      </c>
       <c r="C67" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D67" s="60" t="s">
         <v>98</v>
@@ -40553,13 +40553,13 @@
     </row>
     <row r="68" spans="1:5" ht="24" customHeight="1">
       <c r="A68" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="B68" s="69" t="s">
         <v>296</v>
       </c>
-      <c r="B68" s="69" t="s">
-        <v>297</v>
-      </c>
       <c r="C68" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D68" s="60" t="s">
         <v>98</v>
@@ -40567,43 +40567,43 @@
     </row>
     <row r="69" spans="1:5" ht="24" customHeight="1">
       <c r="A69" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="B69" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="C69" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="60" t="s">
         <v>299</v>
-      </c>
-      <c r="C69" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D69" s="60" t="s">
-        <v>300</v>
       </c>
       <c r="E69"/>
     </row>
     <row r="70" spans="1:5" ht="24" customHeight="1">
       <c r="A70" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="B70" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="C70" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="60" t="s">
         <v>302</v>
-      </c>
-      <c r="C70" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D70" s="60" t="s">
-        <v>303</v>
       </c>
       <c r="E70"/>
     </row>
     <row r="71" spans="1:5" ht="24" customHeight="1">
       <c r="A71" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="B71" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="B71" s="58" t="s">
-        <v>305</v>
-      </c>
       <c r="C71" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D71" s="60" t="s">
         <v>99</v>
@@ -40612,16 +40612,16 @@
     </row>
     <row r="72" spans="1:5" ht="24" customHeight="1">
       <c r="A72" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="B72" s="58" t="s">
         <v>306</v>
       </c>
-      <c r="B72" s="58" t="s">
+      <c r="C72" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="60" t="s">
         <v>307</v>
-      </c>
-      <c r="C72" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="D72" s="60" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="24.75" customHeight="1"/>
@@ -41690,102 +41690,102 @@
     </row>
     <row r="2" spans="1:1024" s="73" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="C2" s="72" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="D2" s="72" t="s">
         <v>311</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="E2" s="72" t="s">
         <v>312</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="F2" s="72" t="s">
         <v>313</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="G2" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="H2" s="72" t="s">
         <v>315</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="I2" s="72" t="s">
         <v>316</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="J2" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="K2" s="72" t="s">
         <v>318</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="L2" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="M2" s="72" t="s">
         <v>320</v>
       </c>
-      <c r="M2" s="72" t="s">
+      <c r="N2" s="72" t="s">
         <v>321</v>
       </c>
-      <c r="N2" s="72" t="s">
+      <c r="O2" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="P2" s="72" t="s">
         <v>323</v>
-      </c>
-      <c r="P2" s="72" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:1024" s="75" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="74" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="C3" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="74" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="74" t="s">
-        <v>325</v>
-      </c>
-      <c r="D3" s="74" t="s">
+      <c r="E3" s="74" t="s">
         <v>327</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="F3" s="74" t="s">
         <v>328</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="G3" s="74" t="s">
         <v>329</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="H3" s="74" t="s">
         <v>330</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="I3" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="J3" s="74" t="s">
         <v>332</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="K3" s="74" t="s">
         <v>333</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="L3" s="74" t="s">
         <v>334</v>
       </c>
-      <c r="L3" s="74" t="s">
+      <c r="M3" s="74" t="s">
+        <v>330</v>
+      </c>
+      <c r="N3" s="74" t="s">
         <v>335</v>
       </c>
-      <c r="M3" s="74" t="s">
-        <v>331</v>
-      </c>
-      <c r="N3" s="74" t="s">
+      <c r="O3" s="74" t="s">
         <v>336</v>
       </c>
-      <c r="O3" s="74" t="s">
+      <c r="P3" s="74" t="s">
         <v>337</v>
-      </c>
-      <c r="P3" s="74" t="s">
-        <v>338</v>
       </c>
       <c r="Q3" s="75">
         <v>81</v>
@@ -41793,52 +41793,52 @@
     </row>
     <row r="4" spans="1:1024" s="75" customFormat="1" ht="31.5" customHeight="1">
       <c r="A4" s="74" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>339</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="C4" s="74" t="s">
         <v>340</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="D4" s="74" t="s">
         <v>341</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="E4" s="74" t="s">
         <v>342</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="F4" s="74" t="s">
         <v>343</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="G4" s="74" t="s">
         <v>344</v>
       </c>
-      <c r="G4" s="74" t="s">
+      <c r="H4" s="74" t="s">
         <v>345</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="I4" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="J4" s="74" t="s">
         <v>347</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="K4" s="74" t="s">
         <v>348</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="L4" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="L4" s="74" t="s">
+      <c r="M4" s="74" t="s">
         <v>350</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="N4" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="O4" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="P4" s="74" t="s">
         <v>353</v>
-      </c>
-      <c r="P4" s="74" t="s">
-        <v>354</v>
       </c>
       <c r="Q4" s="75">
         <v>162</v>
@@ -41846,52 +41846,52 @@
     </row>
     <row r="5" spans="1:1024" ht="31.5" customHeight="1">
       <c r="A5" s="76" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" s="74" t="s">
         <v>355</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="C5" s="74" t="s">
         <v>356</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="D5" s="74" t="s">
         <v>357</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="E5" s="74" t="s">
         <v>358</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="F5" s="74" t="s">
         <v>359</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="G5" s="74" t="s">
         <v>360</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="H5" s="74" t="s">
         <v>361</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="I5" s="74" t="s">
         <v>362</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="J5" s="74" t="s">
         <v>363</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="K5" s="74" t="s">
         <v>364</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="L5" s="74" t="s">
         <v>365</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="M5" s="74" t="s">
         <v>366</v>
       </c>
-      <c r="M5" s="74" t="s">
+      <c r="N5" s="74" t="s">
         <v>367</v>
       </c>
-      <c r="N5" s="74" t="s">
+      <c r="O5" s="74" t="s">
         <v>368</v>
       </c>
-      <c r="O5" s="74" t="s">
+      <c r="P5" s="74" t="s">
         <v>369</v>
-      </c>
-      <c r="P5" s="74" t="s">
-        <v>370</v>
       </c>
       <c r="Q5" s="75">
         <v>3</v>
@@ -41899,96 +41899,96 @@
     </row>
     <row r="6" spans="1:1024" ht="31.5" customHeight="1">
       <c r="A6" s="76" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="74" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="C6" s="74" t="s">
         <v>372</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="D6" s="74" t="s">
         <v>373</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="E6" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="F6" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="G6" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="H6" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="I6" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="J6" s="74" t="s">
         <v>379</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="K6" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="L6" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="L6" s="74" t="s">
+      <c r="M6" s="74" t="s">
         <v>382</v>
-      </c>
-      <c r="M6" s="74" t="s">
-        <v>383</v>
       </c>
       <c r="N6" s="74"/>
       <c r="O6" s="74" t="s">
+        <v>383</v>
+      </c>
+      <c r="P6" s="74" t="s">
         <v>384</v>
-      </c>
-      <c r="P6" s="74" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:1024" ht="31.5" customHeight="1">
       <c r="A7" s="76" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" s="74" t="s">
         <v>386</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="C7" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="C7" s="74" t="s">
-        <v>355</v>
-      </c>
-      <c r="D7" s="74" t="s">
+      <c r="E7" s="74" t="s">
         <v>388</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="F7" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="G7" s="74" t="s">
         <v>390</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="H7" s="74" t="s">
         <v>391</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="I7" s="74" t="s">
         <v>392</v>
       </c>
-      <c r="I7" s="74" t="s">
+      <c r="J7" s="74" t="s">
         <v>393</v>
-      </c>
-      <c r="J7" s="74" t="s">
-        <v>394</v>
       </c>
       <c r="K7" s="74"/>
       <c r="L7" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="M7" s="74" t="s">
         <v>395</v>
-      </c>
-      <c r="M7" s="74" t="s">
-        <v>396</v>
       </c>
       <c r="N7" s="74"/>
       <c r="O7" s="77" t="s">
+        <v>396</v>
+      </c>
+      <c r="P7" s="74" t="s">
         <v>397</v>
-      </c>
-      <c r="P7" s="74" t="s">
-        <v>398</v>
       </c>
       <c r="Q7" s="75">
         <v>70</v>
@@ -41996,46 +41996,46 @@
     </row>
     <row r="8" spans="1:1024" ht="31.5" customHeight="1">
       <c r="A8" s="76" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" s="74" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="C8" s="74" t="s">
         <v>400</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="D8" s="74" t="s">
         <v>401</v>
-      </c>
-      <c r="D8" s="74" t="s">
-        <v>402</v>
       </c>
       <c r="E8" s="74"/>
       <c r="F8" s="74" t="s">
+        <v>402</v>
+      </c>
+      <c r="G8" s="74" t="s">
         <v>403</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="H8" s="74" t="s">
         <v>404</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="I8" s="74" t="s">
         <v>405</v>
       </c>
-      <c r="I8" s="74" t="s">
+      <c r="J8" s="74" t="s">
         <v>406</v>
-      </c>
-      <c r="J8" s="74" t="s">
-        <v>407</v>
       </c>
       <c r="K8" s="74"/>
       <c r="L8" s="74" t="s">
+        <v>407</v>
+      </c>
+      <c r="M8" s="74" t="s">
         <v>408</v>
-      </c>
-      <c r="M8" s="74" t="s">
-        <v>409</v>
       </c>
       <c r="N8" s="74"/>
       <c r="O8" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="P8" s="74" t="s">
         <v>410</v>
-      </c>
-      <c r="P8" s="74" t="s">
-        <v>411</v>
       </c>
       <c r="Q8" s="75">
         <v>82</v>
@@ -42043,44 +42043,44 @@
     </row>
     <row r="9" spans="1:1024" ht="31.5" customHeight="1">
       <c r="A9" s="74" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B9" s="78"/>
       <c r="C9" s="74" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E9" s="74"/>
       <c r="F9" s="74" t="s">
+        <v>413</v>
+      </c>
+      <c r="G9" s="74" t="s">
         <v>414</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="H9" s="74" t="s">
         <v>415</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="I9" s="74" t="s">
         <v>416</v>
       </c>
-      <c r="I9" s="74" t="s">
+      <c r="J9" s="74" t="s">
         <v>417</v>
-      </c>
-      <c r="J9" s="74" t="s">
-        <v>418</v>
       </c>
       <c r="K9" s="74"/>
       <c r="L9" s="74" t="s">
+        <v>418</v>
+      </c>
+      <c r="M9" s="74" t="s">
         <v>419</v>
-      </c>
-      <c r="M9" s="74" t="s">
-        <v>420</v>
       </c>
       <c r="N9" s="74"/>
       <c r="O9" s="74" t="s">
+        <v>420</v>
+      </c>
+      <c r="P9" s="74" t="s">
         <v>421</v>
-      </c>
-      <c r="P9" s="74" t="s">
-        <v>422</v>
       </c>
       <c r="Q9" s="75">
         <v>11</v>
@@ -42088,42 +42088,42 @@
     </row>
     <row r="10" spans="1:1024" ht="31.5" customHeight="1">
       <c r="A10" s="76" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B10" s="78"/>
       <c r="C10" s="74" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D10" s="79"/>
       <c r="E10" s="74"/>
       <c r="F10" s="74" t="s">
+        <v>423</v>
+      </c>
+      <c r="G10" s="74" t="s">
         <v>424</v>
       </c>
-      <c r="G10" s="74" t="s">
+      <c r="H10" s="74" t="s">
         <v>425</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="I10" s="74" t="s">
         <v>426</v>
       </c>
-      <c r="I10" s="74" t="s">
+      <c r="J10" s="74" t="s">
         <v>427</v>
-      </c>
-      <c r="J10" s="74" t="s">
-        <v>428</v>
       </c>
       <c r="K10" s="74"/>
       <c r="L10" s="74" t="s">
+        <v>428</v>
+      </c>
+      <c r="M10" s="76" t="s">
         <v>429</v>
-      </c>
-      <c r="M10" s="76" t="s">
-        <v>430</v>
       </c>
       <c r="N10" s="74"/>
       <c r="O10" s="74" t="s">
+        <v>430</v>
+      </c>
+      <c r="P10" s="74" t="s">
         <v>431</v>
-      </c>
-      <c r="P10" s="74" t="s">
-        <v>432</v>
       </c>
       <c r="Q10" s="75">
         <v>163</v>
@@ -42131,40 +42131,40 @@
     </row>
     <row r="11" spans="1:1024" ht="31.5" customHeight="1">
       <c r="A11" s="76" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B11" s="78"/>
       <c r="C11" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D11" s="79"/>
       <c r="E11" s="74"/>
       <c r="F11" s="74" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G11" s="78"/>
       <c r="H11" s="74" t="s">
+        <v>435</v>
+      </c>
+      <c r="I11" s="74" t="s">
         <v>436</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="J11" s="74" t="s">
         <v>437</v>
-      </c>
-      <c r="J11" s="74" t="s">
-        <v>438</v>
       </c>
       <c r="K11" s="74"/>
       <c r="L11" s="74" t="s">
+        <v>438</v>
+      </c>
+      <c r="M11" s="74" t="s">
         <v>439</v>
-      </c>
-      <c r="M11" s="74" t="s">
-        <v>440</v>
       </c>
       <c r="N11" s="74"/>
       <c r="O11" s="74" t="s">
+        <v>440</v>
+      </c>
+      <c r="P11" s="74" t="s">
         <v>441</v>
-      </c>
-      <c r="P11" s="74" t="s">
-        <v>442</v>
       </c>
       <c r="Q11" s="75">
         <v>164</v>
@@ -42172,38 +42172,38 @@
     </row>
     <row r="12" spans="1:1024" ht="31.5" customHeight="1">
       <c r="A12" s="76" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B12" s="78"/>
       <c r="C12" s="74" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D12" s="79"/>
       <c r="E12" s="74"/>
       <c r="F12" s="74" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G12" s="78"/>
       <c r="H12" s="74" t="s">
+        <v>444</v>
+      </c>
+      <c r="I12" s="74" t="s">
         <v>445</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="J12" s="74" t="s">
         <v>446</v>
-      </c>
-      <c r="J12" s="74" t="s">
-        <v>447</v>
       </c>
       <c r="K12" s="74"/>
       <c r="L12" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="M12" s="74" t="s">
         <v>448</v>
-      </c>
-      <c r="M12" s="74" t="s">
-        <v>449</v>
       </c>
       <c r="N12" s="74"/>
       <c r="O12" s="74"/>
       <c r="P12" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q12" s="75">
         <v>165</v>
@@ -42211,40 +42211,40 @@
     </row>
     <row r="13" spans="1:1024" ht="31.5" customHeight="1">
       <c r="A13" s="76" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B13" s="78"/>
       <c r="C13" s="74" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D13" s="79"/>
       <c r="E13" s="74"/>
       <c r="F13" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G13" s="78"/>
       <c r="H13" s="74" t="s">
+        <v>453</v>
+      </c>
+      <c r="I13" s="74" t="s">
         <v>454</v>
       </c>
-      <c r="I13" s="74" t="s">
+      <c r="J13" s="74" t="s">
         <v>455</v>
-      </c>
-      <c r="J13" s="74" t="s">
-        <v>456</v>
       </c>
       <c r="K13" s="74"/>
       <c r="L13" s="74" t="s">
+        <v>456</v>
+      </c>
+      <c r="M13" s="74" t="s">
         <v>457</v>
-      </c>
-      <c r="M13" s="74" t="s">
-        <v>458</v>
       </c>
       <c r="N13" s="74"/>
       <c r="O13" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="P13" s="74" t="s">
         <v>459</v>
-      </c>
-      <c r="P13" s="74" t="s">
-        <v>460</v>
       </c>
       <c r="Q13" s="75">
         <v>74</v>
@@ -42252,38 +42252,38 @@
     </row>
     <row r="14" spans="1:1024" ht="31.5" customHeight="1">
       <c r="A14" s="76" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B14" s="78"/>
       <c r="C14" s="74" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D14" s="79"/>
       <c r="E14" s="74"/>
       <c r="F14" s="74" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G14" s="78"/>
       <c r="H14" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="I14" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="J14" s="74" t="s">
         <v>465</v>
-      </c>
-      <c r="J14" s="74" t="s">
-        <v>466</v>
       </c>
       <c r="K14" s="74"/>
       <c r="L14" s="74" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M14" s="74"/>
       <c r="N14" s="74"/>
       <c r="O14" s="74" t="s">
+        <v>467</v>
+      </c>
+      <c r="P14" s="74" t="s">
         <v>468</v>
-      </c>
-      <c r="P14" s="74" t="s">
-        <v>469</v>
       </c>
       <c r="Q14" s="75">
         <v>75</v>
@@ -42294,26 +42294,26 @@
     </row>
     <row r="15" spans="1:1024" ht="31.5" customHeight="1">
       <c r="A15" s="76" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B15" s="78"/>
       <c r="C15" s="74" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D15" s="79"/>
       <c r="E15" s="74"/>
       <c r="F15" s="74" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G15" s="78"/>
       <c r="H15" s="74" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I15" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="J15" s="74" t="s">
         <v>473</v>
-      </c>
-      <c r="J15" s="74" t="s">
-        <v>474</v>
       </c>
       <c r="K15" s="74"/>
       <c r="L15" s="74"/>
@@ -42321,7 +42321,7 @@
       <c r="N15" s="74"/>
       <c r="O15" s="74"/>
       <c r="P15" s="74" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q15" s="75">
         <v>166</v>
@@ -42329,26 +42329,26 @@
     </row>
     <row r="16" spans="1:1024" ht="31.5" customHeight="1">
       <c r="A16" s="76" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B16" s="78"/>
       <c r="C16" s="74" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D16" s="79"/>
       <c r="E16" s="74"/>
       <c r="F16" s="74" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G16" s="78"/>
       <c r="H16" s="74" t="s">
+        <v>478</v>
+      </c>
+      <c r="I16" s="74" t="s">
         <v>479</v>
       </c>
-      <c r="I16" s="74" t="s">
+      <c r="J16" s="74" t="s">
         <v>480</v>
-      </c>
-      <c r="J16" s="74" t="s">
-        <v>481</v>
       </c>
       <c r="K16" s="74"/>
       <c r="L16" s="74"/>
@@ -42356,7 +42356,7 @@
       <c r="N16" s="74"/>
       <c r="O16" s="74"/>
       <c r="P16" s="74" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q16" s="75">
         <v>167</v>
@@ -42364,23 +42364,23 @@
     </row>
     <row r="17" spans="1:16" ht="31.5" customHeight="1">
       <c r="A17" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B17" s="78"/>
       <c r="C17" s="74" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D17" s="79"/>
       <c r="E17" s="74"/>
       <c r="F17" s="74" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G17" s="78"/>
       <c r="H17" s="74" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I17" s="74" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J17" s="74"/>
       <c r="K17" s="74"/>
@@ -42392,23 +42392,23 @@
     </row>
     <row r="18" spans="1:16" ht="31.5" customHeight="1">
       <c r="A18" s="76" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B18" s="78"/>
       <c r="C18" s="74" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D18" s="79"/>
       <c r="E18" s="74"/>
       <c r="F18" s="74" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G18" s="78"/>
       <c r="H18" s="74" t="s">
+        <v>489</v>
+      </c>
+      <c r="I18" s="74" t="s">
         <v>490</v>
-      </c>
-      <c r="I18" s="74" t="s">
-        <v>491</v>
       </c>
       <c r="J18" s="74"/>
       <c r="K18" s="74"/>
@@ -42420,23 +42420,23 @@
     </row>
     <row r="19" spans="1:16" ht="31.5" customHeight="1">
       <c r="A19" s="76" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B19" s="78"/>
       <c r="C19" s="74" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D19" s="79"/>
       <c r="E19" s="74"/>
       <c r="F19" s="74" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G19" s="78"/>
       <c r="H19" s="74" t="s">
+        <v>494</v>
+      </c>
+      <c r="I19" s="74" t="s">
         <v>495</v>
-      </c>
-      <c r="I19" s="74" t="s">
-        <v>496</v>
       </c>
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
@@ -42450,19 +42450,19 @@
       <c r="A20" s="76"/>
       <c r="B20" s="78"/>
       <c r="C20" s="74" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D20" s="79"/>
       <c r="E20" s="74"/>
       <c r="F20" s="74" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G20" s="78"/>
       <c r="H20" s="74" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I20" s="74" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J20" s="74"/>
       <c r="K20" s="74"/>
@@ -42479,14 +42479,14 @@
       <c r="D21" s="79"/>
       <c r="E21" s="74"/>
       <c r="F21" s="74" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G21" s="78"/>
       <c r="H21" s="74" t="s">
+        <v>500</v>
+      </c>
+      <c r="I21" s="74" t="s">
         <v>501</v>
-      </c>
-      <c r="I21" s="74" t="s">
-        <v>502</v>
       </c>
       <c r="J21" s="74"/>
       <c r="K21" s="74"/>
@@ -42503,11 +42503,11 @@
       <c r="D22" s="79"/>
       <c r="E22" s="74"/>
       <c r="F22" s="74" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G22" s="78"/>
       <c r="H22" s="74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I22" s="74"/>
       <c r="J22" s="74"/>
@@ -42525,11 +42525,11 @@
       <c r="D23" s="79"/>
       <c r="E23" s="74"/>
       <c r="F23" s="74" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G23" s="78"/>
       <c r="H23" s="74" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I23" s="74"/>
       <c r="J23" s="74"/>
@@ -42547,11 +42547,11 @@
       <c r="D24" s="79"/>
       <c r="E24" s="74"/>
       <c r="F24" s="74" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G24" s="78"/>
       <c r="H24" s="74" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I24" s="74"/>
       <c r="J24" s="74"/>
@@ -42569,7 +42569,7 @@
       <c r="D25" s="79"/>
       <c r="E25" s="74"/>
       <c r="F25" s="74" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G25" s="78"/>
       <c r="H25" s="74"/>
@@ -42616,25 +42616,25 @@
   <sheetData>
     <row r="1" spans="1:8" s="84" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" s="83" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="C1" s="83" t="s">
         <v>509</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="D1" s="83" t="s">
         <v>510</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="E1" s="83" t="s">
         <v>511</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="F1" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="G1" s="83" t="s">
         <v>513</v>
-      </c>
-      <c r="G1" s="83" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="55.5" customHeight="1">
@@ -42642,22 +42642,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C2" s="87" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" s="87" t="s">
         <v>515</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="E2" s="87" t="s">
         <v>516</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="F2" s="87" t="s">
         <v>517</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="G2" s="87" t="s">
         <v>518</v>
-      </c>
-      <c r="G2" s="87" t="s">
-        <v>519</v>
       </c>
       <c r="H2"/>
     </row>
@@ -42666,22 +42666,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="86" t="s">
+        <v>519</v>
+      </c>
+      <c r="C3" s="87" t="s">
         <v>520</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="D3" s="88" t="s">
         <v>521</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="E3" s="87" t="s">
         <v>522</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="F3" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="G3" s="87" t="s">
         <v>524</v>
-      </c>
-      <c r="G3" s="87" t="s">
-        <v>525</v>
       </c>
       <c r="H3"/>
     </row>
@@ -42690,22 +42690,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C4" s="87" t="s">
+        <v>525</v>
+      </c>
+      <c r="D4" s="87" t="s">
         <v>526</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="E4" s="87" t="s">
         <v>527</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="F4" s="89" t="s">
         <v>528</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="G4" s="87" t="s">
         <v>529</v>
-      </c>
-      <c r="G4" s="87" t="s">
-        <v>530</v>
       </c>
       <c r="H4" s="90" t="s">
         <v>105</v>
@@ -42716,22 +42716,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C5" s="87" t="s">
+        <v>530</v>
+      </c>
+      <c r="D5" s="87" t="s">
         <v>531</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="E5" s="87" t="s">
         <v>532</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="F5" s="87" t="s">
         <v>533</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="G5" s="87" t="s">
         <v>534</v>
-      </c>
-      <c r="G5" s="87" t="s">
-        <v>535</v>
       </c>
       <c r="H5" s="90"/>
     </row>
@@ -42740,22 +42740,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C6" s="87" t="s">
+        <v>535</v>
+      </c>
+      <c r="D6" s="87" t="s">
         <v>536</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="E6" s="87" t="s">
         <v>537</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="F6" s="87" t="s">
         <v>538</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="G6" s="87" t="s">
         <v>539</v>
-      </c>
-      <c r="G6" s="87" t="s">
-        <v>540</v>
       </c>
       <c r="H6" s="90"/>
     </row>
@@ -42764,22 +42764,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C7" s="87" t="s">
+        <v>540</v>
+      </c>
+      <c r="D7" s="87" t="s">
         <v>541</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="E7" s="87" t="s">
         <v>542</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="F7" s="87" t="s">
         <v>543</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="G7" s="87" t="s">
         <v>544</v>
-      </c>
-      <c r="G7" s="87" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="55.5" customHeight="1">
@@ -42787,22 +42787,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C8" s="87" t="s">
+        <v>525</v>
+      </c>
+      <c r="D8" s="87" t="s">
         <v>526</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="E8" s="87" t="s">
         <v>527</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="F8" s="89" t="s">
         <v>528</v>
       </c>
-      <c r="F8" s="89" t="s">
+      <c r="G8" s="87" t="s">
         <v>529</v>
-      </c>
-      <c r="G8" s="87" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="71.25" customHeight="1">
@@ -42810,22 +42810,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="91" t="s">
+        <v>546</v>
+      </c>
+      <c r="C9" s="87" t="s">
         <v>547</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="D9" s="92" t="s">
         <v>548</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="E9" s="93" t="s">
         <v>549</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="F9" s="87" t="s">
         <v>550</v>
       </c>
-      <c r="F9" s="87" t="s">
+      <c r="G9" s="94" t="s">
         <v>551</v>
-      </c>
-      <c r="G9" s="94" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="55.5" customHeight="1">
@@ -42833,22 +42833,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C10" s="87" t="s">
+        <v>552</v>
+      </c>
+      <c r="D10" s="87" t="s">
         <v>553</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="E10" s="95" t="s">
         <v>554</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="F10" s="87" t="s">
         <v>555</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="G10" s="87" t="s">
         <v>556</v>
-      </c>
-      <c r="G10" s="87" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="55.5" customHeight="1">
@@ -42856,22 +42856,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C11" s="87" t="s">
+        <v>557</v>
+      </c>
+      <c r="D11" s="87" t="s">
         <v>558</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="E11" s="87" t="s">
         <v>559</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="F11" s="87" t="s">
         <v>560</v>
       </c>
-      <c r="F11" s="87" t="s">
+      <c r="G11" s="87" t="s">
         <v>561</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="55.5" customHeight="1">
@@ -42879,22 +42879,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="86" t="s">
+        <v>562</v>
+      </c>
+      <c r="C12" s="87" t="s">
         <v>563</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="D12" s="87" t="s">
         <v>564</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="E12" s="87" t="s">
         <v>565</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="F12" s="87" t="s">
         <v>566</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="G12" s="87" t="s">
         <v>567</v>
-      </c>
-      <c r="G12" s="87" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="55.5" customHeight="1">
@@ -42902,22 +42902,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="86" t="s">
+        <v>568</v>
+      </c>
+      <c r="C13" s="87" t="s">
         <v>569</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="D13" s="96" t="s">
         <v>570</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="E13" s="87" t="s">
         <v>571</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="F13" s="87" t="s">
         <v>572</v>
       </c>
-      <c r="F13" s="87" t="s">
+      <c r="G13" s="87" t="s">
         <v>573</v>
-      </c>
-      <c r="G13" s="87" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="55.5" customHeight="1">
@@ -42925,22 +42925,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="86" t="s">
+        <v>574</v>
+      </c>
+      <c r="C14" s="87" t="s">
         <v>575</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="D14" s="87" t="s">
         <v>576</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="E14" s="87" t="s">
         <v>577</v>
       </c>
-      <c r="E14" s="87" t="s">
+      <c r="F14" s="97" t="s">
         <v>578</v>
       </c>
-      <c r="F14" s="97" t="s">
+      <c r="G14" s="87" t="s">
         <v>579</v>
-      </c>
-      <c r="G14" s="87" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="55.5" customHeight="1">
@@ -42948,22 +42948,22 @@
         <v>15</v>
       </c>
       <c r="B15" s="86" t="s">
+        <v>580</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>569</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>570</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>571</v>
+      </c>
+      <c r="F15" s="87" t="s">
+        <v>572</v>
+      </c>
+      <c r="G15" s="87" t="s">
         <v>581</v>
-      </c>
-      <c r="C15" s="87" t="s">
-        <v>570</v>
-      </c>
-      <c r="D15" s="96" t="s">
-        <v>571</v>
-      </c>
-      <c r="E15" s="87" t="s">
-        <v>572</v>
-      </c>
-      <c r="F15" s="87" t="s">
-        <v>573</v>
-      </c>
-      <c r="G15" s="87" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="55.5" customHeight="1">
@@ -42971,22 +42971,22 @@
         <v>16</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C16" s="87" t="s">
+        <v>582</v>
+      </c>
+      <c r="D16" s="87" t="s">
         <v>583</v>
       </c>
-      <c r="D16" s="87" t="s">
+      <c r="E16" s="87" t="s">
         <v>584</v>
       </c>
-      <c r="E16" s="87" t="s">
+      <c r="F16" s="87" t="s">
         <v>585</v>
       </c>
-      <c r="F16" s="87" t="s">
+      <c r="G16" s="87" t="s">
         <v>586</v>
-      </c>
-      <c r="G16" s="87" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="55.5" customHeight="1">
@@ -42994,22 +42994,22 @@
         <v>18</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C17" s="87" t="s">
+        <v>587</v>
+      </c>
+      <c r="D17" s="87" t="s">
         <v>588</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="E17" s="87" t="s">
         <v>589</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="F17" s="87" t="s">
         <v>590</v>
       </c>
-      <c r="F17" s="87" t="s">
+      <c r="G17" s="87" t="s">
         <v>591</v>
-      </c>
-      <c r="G17" s="87" t="s">
-        <v>592</v>
       </c>
     </row>
   </sheetData>
